--- a/flows/USO_fund_flow_data.xlsx
+++ b/flows/USO_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4507"/>
+  <dimension ref="A1:B4519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45505,6 +45505,126 @@
         <v>-29.6188</v>
       </c>
     </row>
+    <row r="4508">
+      <c r="A4508" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4508" t="n">
+        <v>-44.2476</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4509" t="n">
+        <v>73.492</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4511" t="n">
+        <v>-66.6009</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4512" t="n">
+        <v>-22.0266</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4514" t="n">
+        <v>29.688</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4515" t="n">
+        <v>73.407</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4516" t="n">
+        <v>-22.0239</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4518" t="n">
+        <v>-37.5495</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4519" t="n">
+        <v>45.888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
